--- a/outputs/november.xlsx
+++ b/outputs/november.xlsx
@@ -567,7 +567,7 @@
         <v>-3783.57</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-3.83</v>
+        <v>-0.0383</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>99757.03</v>
@@ -637,14 +637,18 @@
       <c r="O3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -802,7 +806,7 @@
         <v>-529</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.06</v>
+        <v>-0.0206</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>25624</v>
@@ -870,7 +874,7 @@
         <v>-115.75</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.68</v>
+        <v>-0.0168</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6873.25</v>
@@ -938,7 +942,7 @@
         <v>-0.974</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.83</v>
+        <v>-0.0183</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>53.261</v>
@@ -970,7 +974,9 @@
       <c r="N8" s="1" t="n">
         <v>-0.75</v>
       </c>
-      <c r="O8" s="2" t="n"/>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="P8" s="1" t="n">
         <v>25095.25</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>-1.667</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-3.19</v>
+        <v>-0.0319</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>52.287</v>
@@ -1173,7 +1179,7 @@
         <v>-90.63</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-2.17</v>
+        <v>-0.0217</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>4171.42</v>
@@ -1376,7 +1382,9 @@
       <c r="N14" s="1" t="n">
         <v>-0.004</v>
       </c>
-      <c r="O14" s="2" t="n"/>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="P14" s="1" t="n">
         <v>154.547</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>-3357.7</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.53</v>
+        <v>-0.0353</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>94439.78</v>
@@ -1792,7 +1800,7 @@
         <v>-1875.23</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-2.03</v>
+        <v>-0.0203</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>92971.89999999999</v>
@@ -1825,7 +1833,7 @@
         <v>-3275.84</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-3.62</v>
+        <v>-0.0362</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>91520.61</v>
@@ -1858,7 +1866,7 @@
         <v>-2153.75</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-2.47</v>
+        <v>-0.0247</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>86626.02</v>
@@ -1895,14 +1903,18 @@
       <c r="D3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.25</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1924,14 +1936,18 @@
       <c r="O3" s="2" t="n">
         <v>-0.01</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>99.66</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1953,14 +1969,18 @@
       <c r="Z3" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>100.24</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.48999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1982,14 +2002,18 @@
       <c r="AK3" s="2" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>100.36</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>100.03</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -2745,7 +2769,7 @@
         <v>-283.25</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>-1.14</v>
+        <v>-0.0114</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>24905.5</v>
@@ -2811,7 +2835,7 @@
         <v>-590.25</v>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>-2.39</v>
+        <v>-0.0239</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>24966.75</v>
@@ -2978,7 +3002,7 @@
         <v>-104</v>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>-1.56</v>
+        <v>-0.0156</v>
       </c>
       <c r="AL9" s="1" t="n">
         <v>6697.5</v>
@@ -3112,7 +3136,7 @@
         <v>0.663</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>1.31</v>
+        <v>0.0131</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>50.699</v>
@@ -3145,7 +3169,7 @@
         <v>-0.705</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-1.37</v>
+        <v>-0.0137</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>51.362</v>
@@ -3178,7 +3202,7 @@
         <v>-0.647</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-1.28</v>
+        <v>-0.0128</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>50.656</v>
@@ -3780,7 +3804,7 @@
         <v>1.64</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="AA14" s="1" t="n">
         <v>155.515</v>
@@ -4461,7 +4485,7 @@
         <v>3578.06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.2</v>
+        <v>0.042</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>86810.91</v>
@@ -4494,7 +4518,7 @@
         <v>-1740.47</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-1.96</v>
+        <v>-0.0196</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>88302.05</v>
@@ -4527,7 +4551,7 @@
         <v>3158.85</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>3.63</v>
+        <v>0.0363</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>87398.52</v>
@@ -4560,7 +4584,7 @@
         <v>1249.76</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>90501.92</v>
@@ -4624,16 +4648,24 @@
           <t>100.18</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="1" t="n"/>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>100.3</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>100.01</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4655,14 +4687,18 @@
       <c r="O3" s="2" t="n">
         <v>-0.34</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>100.26</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.65000000000001</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4684,14 +4720,18 @@
       <c r="Z3" s="2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>99.95999999999999</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.56</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4722,7 +4762,9 @@
       <c r="AN3" s="1" t="n">
         <v>99.41</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4744,14 +4786,18 @@
       <c r="AV3" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>99.81999999999999</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>99.38</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -5441,7 +5487,7 @@
         <v>642.75</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.64</v>
+        <v>0.0264</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>24455.75</v>
@@ -5608,7 +5654,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>6654.75</v>
@@ -5775,7 +5821,7 @@
         <v>1.351</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>50.016</v>
@@ -5841,7 +5887,7 @@
         <v>1.867</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>3.63</v>
+        <v>0.0363</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>51.483</v>
@@ -5907,7 +5953,7 @@
         <v>3.324</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>6.23</v>
+        <v>0.0623</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>53.393</v>
@@ -5942,7 +5988,7 @@
         <v>68.98</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4070</v>
@@ -6074,7 +6120,7 @@
         <v>61.79</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4157.44</v>

--- a/outputs/november.xlsx
+++ b/outputs/november.xlsx
@@ -18,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00&quot;%&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -51,7 +53,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -567,7 +569,7 @@
         <v>-3783.57</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-0.0383</v>
+        <v>-3.83</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>99757.03</v>
@@ -806,7 +808,7 @@
         <v>-529</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0206</v>
+        <v>-2.06</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>25624</v>
@@ -874,7 +876,7 @@
         <v>-115.75</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.0168</v>
+        <v>-1.68</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>6873.25</v>
@@ -942,7 +944,7 @@
         <v>-0.974</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.0183</v>
+        <v>-1.83</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>53.261</v>
@@ -1111,7 +1113,7 @@
         <v>-1.667</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-0.0319</v>
+        <v>-3.19</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>52.287</v>
@@ -1179,7 +1181,7 @@
         <v>-90.63</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-0.0217</v>
+        <v>-2.17</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>4171.42</v>
@@ -1734,7 +1736,7 @@
         <v>-3357.7</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0353</v>
+        <v>-3.53</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>94439.78</v>
@@ -1800,7 +1802,7 @@
         <v>-1875.23</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-0.0203</v>
+        <v>-2.03</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>92971.89999999999</v>
@@ -1833,7 +1835,7 @@
         <v>-3275.84</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-0.0362</v>
+        <v>-3.62</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>91520.61</v>
@@ -1866,7 +1868,7 @@
         <v>-2153.75</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-0.0247</v>
+        <v>-2.47</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>86626.02</v>
@@ -2769,7 +2771,7 @@
         <v>-283.25</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>-0.0114</v>
+        <v>-1.14</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>24905.5</v>
@@ -2835,7 +2837,7 @@
         <v>-590.25</v>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>-0.0239</v>
+        <v>-2.39</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>24966.75</v>
@@ -3002,7 +3004,7 @@
         <v>-104</v>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>-0.0156</v>
+        <v>-1.56</v>
       </c>
       <c r="AL9" s="1" t="n">
         <v>6697.5</v>
@@ -3136,7 +3138,7 @@
         <v>0.663</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0131</v>
+        <v>1.31</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>50.699</v>
@@ -3169,7 +3171,7 @@
         <v>-0.705</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-0.0137</v>
+        <v>-1.37</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>51.362</v>
@@ -3202,7 +3204,7 @@
         <v>-0.647</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-0.0128</v>
+        <v>-1.28</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>50.656</v>
@@ -3804,7 +3806,7 @@
         <v>1.64</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>0.0105</v>
+        <v>1.05</v>
       </c>
       <c r="AA14" s="1" t="n">
         <v>155.515</v>
@@ -4485,7 +4487,7 @@
         <v>3578.06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.042</v>
+        <v>4.2</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>86810.91</v>
@@ -4518,7 +4520,7 @@
         <v>-1740.47</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-0.0196</v>
+        <v>-1.96</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>88302.05</v>
@@ -4551,7 +4553,7 @@
         <v>3158.85</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0.0363</v>
+        <v>3.63</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>87398.52</v>
@@ -4584,7 +4586,7 @@
         <v>1249.76</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>0.0139</v>
+        <v>1.39</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>90501.92</v>
@@ -5487,7 +5489,7 @@
         <v>642.75</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.0264</v>
+        <v>2.64</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>24455.75</v>
@@ -5654,7 +5656,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.0153</v>
+        <v>1.53</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>6654.75</v>
@@ -5821,7 +5823,7 @@
         <v>1.351</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.027</v>
+        <v>2.7</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>50.016</v>
@@ -5887,7 +5889,7 @@
         <v>1.867</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0363</v>
+        <v>3.63</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>51.483</v>
@@ -5953,7 +5955,7 @@
         <v>3.324</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>0.0623</v>
+        <v>6.23</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>53.393</v>
@@ -5988,7 +5990,7 @@
         <v>68.98</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.017</v>
+        <v>1.7</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4070</v>
@@ -6120,7 +6122,7 @@
         <v>61.79</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>0.0149</v>
+        <v>1.49</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4157.44</v>

--- a/outputs/november.xlsx
+++ b/outputs/november.xlsx
@@ -639,18 +639,14 @@
       <c r="O3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -1905,18 +1901,14 @@
       <c r="D3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.25</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1938,18 +1930,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.01</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.66</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -1971,18 +1959,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>100.24</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.48999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -2004,18 +1988,14 @@
       <c r="AK3" s="2" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>100.36</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>100.03</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -4656,18 +4636,14 @@
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>100.3</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>100.01</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4689,18 +4665,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.34</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>100.26</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.65000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4722,18 +4694,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.95999999999999</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.56</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4764,9 +4732,7 @@
       <c r="AN3" s="1" t="n">
         <v>99.41</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -4788,18 +4754,14 @@
       <c r="AV3" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>99.81999999999999</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>99.38</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
